--- a/Specifications (仕様書)/DD (詳細設計)/API Interface/Backend.xlsx
+++ b/Specifications (仕様書)/DD (詳細設計)/API Interface/Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="137">
   <si>
     <t>Tác giả:</t>
   </si>
@@ -638,8 +638,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1323,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1336,10 +1336,11 @@
     <col min="3" max="3" width="16.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1355,8 +1356,11 @@
       <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1372,8 +1376,11 @@
       <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1424,7 +1431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1477,6 +1484,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1484,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
